--- a/models/table_d2.xlsx
+++ b/models/table_d2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="168">
   <si>
     <t xml:space="preserve">                       </t>
   </si>
@@ -103,7 +103,7 @@
     <t xml:space="preserve">l_wy_sci_world         </t>
   </si>
   <si>
-    <t xml:space="preserve">l_wy_state_mdl         </t>
+    <t xml:space="preserve">l_wy_model             </t>
   </si>
   <si>
     <t xml:space="preserve">sy_sci_state    </t>
@@ -112,409 +112,412 @@
     <t xml:space="preserve">PanelOLS        </t>
   </si>
   <si>
-    <t xml:space="preserve">1721            </t>
+    <t xml:space="preserve">1728            </t>
   </si>
   <si>
     <t xml:space="preserve">Clustered       </t>
   </si>
   <si>
-    <t xml:space="preserve">0.4460          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.2363         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.2681          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">341.69          </t>
+    <t xml:space="preserve">0.4388          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.4162         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.2581          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">333.07          </t>
   </si>
   <si>
     <t xml:space="preserve">0.0000          </t>
   </si>
   <si>
-    <t xml:space="preserve">0.1604***       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0104)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0433          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0952)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.4091***       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.1284)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.4193**        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.1731)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.3062          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.2827)        </t>
+    <t xml:space="preserve">0.1637***       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0097)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0482          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0943)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.3985***       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.1346)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.4245**        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.1769)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.3039          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.2818)        </t>
   </si>
   <si>
     <t xml:space="preserve">                </t>
   </si>
   <si>
-    <t xml:space="preserve">0.4465          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.2221         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.2716          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">228.00          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.1606***       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0470          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0968)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.4065***       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.1282)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.4253**        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.1725)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.3005          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.2843)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0218         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0236)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0113         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0172)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.6568          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.5657          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.6355          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">360.00          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.1651***       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0097)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0373          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0489)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.1620**        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0735)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.2285**        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0960)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0685          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.1513)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0334         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0212)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0170         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0130)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.1428          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0868)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.5992***       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0470)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0424         </t>
+    <t xml:space="preserve">0.4394          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.3956         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.2617          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">222.32          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.1640***       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0519          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0955)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.3958***       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.1343)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.4316**        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.1763)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.2982          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.2832)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0255         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0270)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0097         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0165)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.6571          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.4742          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.6339          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">361.81          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.1665***       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0098)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0369          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0481)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.1574**        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0744)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.2282**        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0984)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0611          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.1463)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0329         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0220)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0152         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0125)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.1533*         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0845)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.6048***       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0450)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0386         </t>
   </si>
   <si>
     <t xml:space="preserve">(0.0375)        </t>
   </si>
   <si>
-    <t xml:space="preserve">0.6822          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.8092          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.7108          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">363.28          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0079)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0502         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0535)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.1240          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0791)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.1463*         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0839)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0308         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.1311)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0201         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0188)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0133         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0165)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0271          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0845)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.5102***       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0391)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0344         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0275)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.3126***       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0680)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.6728          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.7771          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.6947          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">347.88          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.1633***       </t>
+    <t xml:space="preserve">0.6823          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.6940          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.7092          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">364.67          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.1619***       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0082)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0494         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0525)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.1186          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0794)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.1447*         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0864)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0385         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.1272)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0202         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0202)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0116         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0157)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0409          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0848)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.5148***       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0386)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0295         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0280)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.3134***       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0682)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.6737          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.6809          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.6941          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">350.51          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.1648***       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0263         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0487)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.1657**        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0807)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.1863**        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0931)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0015         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.1418)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0247         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0210)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0182         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0163)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0721          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0811)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.5533***       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0367)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0472         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0293)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.1937***       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0409)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.6786          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.6998          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.7046          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">358.51          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.1635***       </t>
   </si>
   <si>
     <t xml:space="preserve">(0.0081)        </t>
   </si>
   <si>
-    <t xml:space="preserve">-0.0250         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0498)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.1703**        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0798)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.1874**        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0907)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0074          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.1460)        </t>
+    <t xml:space="preserve">-0.0411         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0503)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.1469*         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0806)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.1656*         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0901)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0219         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.1352)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0222         </t>
   </si>
   <si>
     <t xml:space="preserve">(0.0204)        </t>
   </si>
   <si>
-    <t xml:space="preserve">-0.0200         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0169)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0620          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0823)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.5509***       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0380)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0510*        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0292)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.1890***       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0416)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.6679          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.6775          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.6734          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">340.30          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.1702***       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0102)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0052         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0541)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0710          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0603)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.1763**        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0822)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0072         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.1317)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0367*        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0196)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0054         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0151)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.1309          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0814)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.5264***       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0592)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0152         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0335)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.2565**        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.1113)        </t>
+    <t xml:space="preserve">-0.0157         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0164)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0525          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0821)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.5331***       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0358)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0406         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0282)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.2592***       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0522)        </t>
   </si>
 </sst>
 </file>
@@ -1010,10 +1013,10 @@
         <v>91</v>
       </c>
       <c r="F6" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G6" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1033,10 +1036,10 @@
         <v>91</v>
       </c>
       <c r="F7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1056,10 +1059,10 @@
         <v>92</v>
       </c>
       <c r="F8" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G8" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -1079,10 +1082,10 @@
         <v>93</v>
       </c>
       <c r="F9" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G9" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -1102,10 +1105,10 @@
         <v>94</v>
       </c>
       <c r="F10" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="G10" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -1145,13 +1148,13 @@
         <v>71</v>
       </c>
       <c r="E12" t="s">
-        <v>39</v>
+        <v>95</v>
       </c>
       <c r="F12" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G12" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -1168,13 +1171,13 @@
         <v>72</v>
       </c>
       <c r="E13" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F13" t="s">
-        <v>121</v>
+        <v>96</v>
       </c>
       <c r="G13" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -1191,13 +1194,13 @@
         <v>73</v>
       </c>
       <c r="E14" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F14" t="s">
         <v>122</v>
       </c>
       <c r="G14" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -1214,13 +1217,13 @@
         <v>74</v>
       </c>
       <c r="E15" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F15" t="s">
         <v>123</v>
       </c>
       <c r="G15" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -1237,13 +1240,13 @@
         <v>75</v>
       </c>
       <c r="E16" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F16" t="s">
         <v>124</v>
       </c>
       <c r="G16" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1260,13 +1263,13 @@
         <v>76</v>
       </c>
       <c r="E17" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F17" t="s">
         <v>125</v>
       </c>
       <c r="G17" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -1283,13 +1286,13 @@
         <v>77</v>
       </c>
       <c r="E18" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F18" t="s">
         <v>126</v>
       </c>
       <c r="G18" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -1306,13 +1309,13 @@
         <v>78</v>
       </c>
       <c r="E19" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F19" t="s">
         <v>127</v>
       </c>
       <c r="G19" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -1329,13 +1332,13 @@
         <v>79</v>
       </c>
       <c r="E20" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F20" t="s">
         <v>128</v>
       </c>
       <c r="G20" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -1352,13 +1355,13 @@
         <v>80</v>
       </c>
       <c r="E21" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F21" t="s">
         <v>129</v>
       </c>
       <c r="G21" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -1375,13 +1378,13 @@
         <v>81</v>
       </c>
       <c r="E22" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F22" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="G22" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -1398,13 +1401,13 @@
         <v>82</v>
       </c>
       <c r="E23" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F23" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="G23" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -1421,13 +1424,13 @@
         <v>83</v>
       </c>
       <c r="E24" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F24" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G24" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -1444,13 +1447,13 @@
         <v>84</v>
       </c>
       <c r="E25" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F25" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G25" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -1467,13 +1470,13 @@
         <v>85</v>
       </c>
       <c r="E26" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F26" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G26" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1490,13 +1493,13 @@
         <v>86</v>
       </c>
       <c r="E27" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F27" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G27" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1513,13 +1516,13 @@
         <v>87</v>
       </c>
       <c r="E28" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F28" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G28" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1536,13 +1539,13 @@
         <v>88</v>
       </c>
       <c r="E29" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F29" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G29" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -1559,13 +1562,13 @@
         <v>89</v>
       </c>
       <c r="E30" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F30" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="G30" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -1582,13 +1585,13 @@
         <v>90</v>
       </c>
       <c r="E31" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F31" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="G31" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -1605,7 +1608,7 @@
         <v>49</v>
       </c>
       <c r="E32" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F32" t="s">
         <v>49</v>
@@ -1628,7 +1631,7 @@
         <v>49</v>
       </c>
       <c r="E33" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F33" t="s">
         <v>49</v>
@@ -1654,7 +1657,7 @@
         <v>49</v>
       </c>
       <c r="F34" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G34" t="s">
         <v>49</v>
@@ -1677,7 +1680,7 @@
         <v>49</v>
       </c>
       <c r="F35" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G35" t="s">
         <v>49</v>
@@ -1703,7 +1706,7 @@
         <v>49</v>
       </c>
       <c r="G36" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -1726,7 +1729,7 @@
         <v>49</v>
       </c>
       <c r="G37" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
   </sheetData>

--- a/models/table_d2.xlsx
+++ b/models/table_d2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="154">
   <si>
     <t xml:space="preserve">                       </t>
   </si>
@@ -73,10 +73,7 @@
     <t xml:space="preserve">l_sy_suffrage          </t>
   </si>
   <si>
-    <t xml:space="preserve">l_sy_lifeex            </t>
-  </si>
-  <si>
-    <t xml:space="preserve">l_sy_urban             </t>
+    <t xml:space="preserve">l_sy_xtr_urban         </t>
   </si>
   <si>
     <t xml:space="preserve">l_sy_gdp               </t>
@@ -112,412 +109,373 @@
     <t xml:space="preserve">PanelOLS        </t>
   </si>
   <si>
-    <t xml:space="preserve">1728            </t>
+    <t xml:space="preserve">2132            </t>
   </si>
   <si>
     <t xml:space="preserve">Clustered       </t>
   </si>
   <si>
-    <t xml:space="preserve">0.4388          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.4162         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.2581          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">333.07          </t>
+    <t xml:space="preserve">0.5486          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.1515          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.4406          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">852.29          </t>
   </si>
   <si>
     <t xml:space="preserve">0.0000          </t>
   </si>
   <si>
-    <t xml:space="preserve">0.1637***       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0097)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0482          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0943)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.3985***       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.1346)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.4245**        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.1769)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.3039          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.2818)        </t>
+    <t xml:space="preserve">0.1649***       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0096)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0114         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0594)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.5835***       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.1400)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.3310          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.2385)        </t>
   </si>
   <si>
     <t xml:space="preserve">                </t>
   </si>
   <si>
-    <t xml:space="preserve">0.4394          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.3956         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.2617          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">222.32          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.1640***       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0519          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0955)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.3958***       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.1343)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.4316**        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.1763)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.2982          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.2832)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0255         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0270)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0097         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0165)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.6571          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.4742          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.6339          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">361.81          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.1665***       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0098)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0369          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0481)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.1574**        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0744)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.2282**        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0984)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0611          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.1463)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0329         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0220)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0152         </t>
+    <t xml:space="preserve">0.5498          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.1554          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.4456          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">513.36          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.1641***       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0083         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0597)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.5828***       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.1398)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.3234          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.2377)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0169          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0249)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0321*        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0173)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.7049          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.7193          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.7243          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">626.67          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.1799***       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0275)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0224         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0346)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.1848***       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0614)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.1816          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.1334)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0129         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0208)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0187         </t>
   </si>
   <si>
     <t xml:space="preserve">(0.0125)        </t>
   </si>
   <si>
-    <t xml:space="preserve">0.1533*         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0845)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.6048***       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0450)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0386         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0375)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.6823          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.6940          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.7092          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">364.67          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.1619***       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0082)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0494         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0525)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.1186          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0794)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.1447*         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0864)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0385         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.1272)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0202         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0202)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0116         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0157)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0409          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0848)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.5148***       </t>
+    <t xml:space="preserve">0.1435**        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0622)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.5737***       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0603)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0456         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0469)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.7158          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.7524          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.7355          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">587.00          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.1613***       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0256)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0286         </t>
   </si>
   <si>
     <t xml:space="preserve">(0.0386)        </t>
   </si>
   <si>
-    <t xml:space="preserve">-0.0295         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0280)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.3134***       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0682)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.6737          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.6809          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.6941          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">350.51          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.1648***       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0263         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0487)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.1657**        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0807)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.1863**        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0931)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0015         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.1418)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0247         </t>
+    <t xml:space="preserve">0.1084**        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0495)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.1224          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.1265)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0057         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0207)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0234**       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0119)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0029         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0543)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.5175***       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0598)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0279         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0448)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.2460***       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0541)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.7162          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.7580          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.7332          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">588.40          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.1817***       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0253)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0540         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0379)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0406*         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0222)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.1016          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.1310)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0127         </t>
   </si>
   <si>
     <t xml:space="preserve">(0.0210)        </t>
   </si>
   <si>
-    <t xml:space="preserve">-0.0182         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0163)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0721          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0811)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.5533***       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0367)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0472         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0293)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.1937***       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0409)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.6786          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.6998          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.7046          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">358.51          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.1635***       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0081)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0411         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0503)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.1469*         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0806)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.1656*         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0901)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0219         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.1352)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0222         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0204)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0157         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0164)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0525          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0821)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.5331***       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0358)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0406         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0282)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.2592***       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0522)        </t>
+    <t xml:space="preserve">-0.0172         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0148)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0024          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0741)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.4926***       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0540)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0407         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0442)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.3666***       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0949)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.7182          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.7413          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.7311          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">594.17          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.1674***       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0258)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0422         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0396)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0599*         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0359)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.1002          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.1271)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0076         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0214         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0132)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0304         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0635)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.4939***       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0572)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0447)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.3549***       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0726)        </t>
   </si>
 </sst>
 </file>
@@ -875,7 +833,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G37"/>
+  <dimension ref="A1:G35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -909,22 +867,22 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -932,22 +890,22 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -955,22 +913,22 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -978,22 +936,22 @@
         <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1001,22 +959,22 @@
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C6" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D6" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="E6" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="F6" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="G6" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1024,22 +982,22 @@
         <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C7" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D7" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="E7" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="F7" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="G7" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1047,22 +1005,22 @@
         <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C8" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D8" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="E8" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="F8" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="G8" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -1070,22 +1028,22 @@
         <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C9" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D9" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="E9" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="F9" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="G9" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -1093,22 +1051,22 @@
         <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C10" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D10" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="E10" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="F10" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="G10" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -1116,22 +1074,22 @@
         <v>16</v>
       </c>
       <c r="B11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -1139,22 +1097,22 @@
         <v>17</v>
       </c>
       <c r="B12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C12" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D12" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="E12" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="F12" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="G12" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -1162,22 +1120,22 @@
         <v>0</v>
       </c>
       <c r="B13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D13" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="E13" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="F13" t="s">
-        <v>96</v>
+        <v>113</v>
       </c>
       <c r="G13" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -1185,22 +1143,22 @@
         <v>18</v>
       </c>
       <c r="B14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C14" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D14" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="E14" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="F14" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="G14" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -1208,22 +1166,22 @@
         <v>0</v>
       </c>
       <c r="B15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C15" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D15" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="E15" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="F15" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="G15" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -1231,22 +1189,22 @@
         <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C16" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D16" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="E16" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="F16" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="G16" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1254,22 +1212,22 @@
         <v>0</v>
       </c>
       <c r="B17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C17" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D17" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="E17" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="F17" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="G17" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -1277,22 +1235,22 @@
         <v>20</v>
       </c>
       <c r="B18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C18" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D18" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="E18" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="F18" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="G18" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -1300,22 +1258,22 @@
         <v>0</v>
       </c>
       <c r="B19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C19" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D19" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="E19" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="F19" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="G19" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -1323,22 +1281,22 @@
         <v>21</v>
       </c>
       <c r="B20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C20" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D20" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="E20" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="F20" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="G20" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -1346,22 +1304,22 @@
         <v>0</v>
       </c>
       <c r="B21" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C21" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D21" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="E21" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="F21" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="G21" t="s">
-        <v>155</v>
+        <v>97</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -1369,22 +1327,22 @@
         <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C22" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D22" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="E22" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="F22" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="G22" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -1392,22 +1350,22 @@
         <v>0</v>
       </c>
       <c r="B23" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C23" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D23" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="E23" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="F23" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="G23" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -1415,22 +1373,22 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C24" t="s">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="D24" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="E24" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="F24" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="G24" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -1438,22 +1396,22 @@
         <v>0</v>
       </c>
       <c r="B25" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C25" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="D25" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="E25" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="F25" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="G25" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -1461,22 +1419,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C26" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D26" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="E26" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="F26" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="G26" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1484,22 +1442,22 @@
         <v>0</v>
       </c>
       <c r="B27" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C27" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D27" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="E27" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="F27" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="G27" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1507,22 +1465,22 @@
         <v>25</v>
       </c>
       <c r="B28" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C28" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D28" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="E28" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="F28" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="G28" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1530,22 +1488,22 @@
         <v>0</v>
       </c>
       <c r="B29" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C29" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D29" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="E29" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="F29" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="G29" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -1553,22 +1511,22 @@
         <v>26</v>
       </c>
       <c r="B30" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C30" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D30" t="s">
-        <v>89</v>
+        <v>46</v>
       </c>
       <c r="E30" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="F30" t="s">
-        <v>138</v>
+        <v>46</v>
       </c>
       <c r="G30" t="s">
-        <v>164</v>
+        <v>46</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -1576,22 +1534,22 @@
         <v>0</v>
       </c>
       <c r="B31" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C31" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D31" t="s">
-        <v>90</v>
+        <v>46</v>
       </c>
       <c r="E31" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="F31" t="s">
-        <v>139</v>
+        <v>46</v>
       </c>
       <c r="G31" t="s">
-        <v>165</v>
+        <v>46</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -1599,22 +1557,22 @@
         <v>27</v>
       </c>
       <c r="B32" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C32" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D32" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E32" t="s">
-        <v>115</v>
+        <v>46</v>
       </c>
       <c r="F32" t="s">
-        <v>49</v>
+        <v>130</v>
       </c>
       <c r="G32" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -1622,22 +1580,22 @@
         <v>0</v>
       </c>
       <c r="B33" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C33" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D33" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E33" t="s">
-        <v>116</v>
+        <v>46</v>
       </c>
       <c r="F33" t="s">
-        <v>49</v>
+        <v>131</v>
       </c>
       <c r="G33" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -1645,22 +1603,22 @@
         <v>28</v>
       </c>
       <c r="B34" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C34" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D34" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E34" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F34" t="s">
-        <v>140</v>
+        <v>46</v>
       </c>
       <c r="G34" t="s">
-        <v>49</v>
+        <v>152</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -1668,68 +1626,22 @@
         <v>0</v>
       </c>
       <c r="B35" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C35" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D35" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E35" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F35" t="s">
-        <v>141</v>
+        <v>46</v>
       </c>
       <c r="G35" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
-      <c r="A36" t="s">
-        <v>29</v>
-      </c>
-      <c r="B36" t="s">
-        <v>49</v>
-      </c>
-      <c r="C36" t="s">
-        <v>49</v>
-      </c>
-      <c r="D36" t="s">
-        <v>49</v>
-      </c>
-      <c r="E36" t="s">
-        <v>49</v>
-      </c>
-      <c r="F36" t="s">
-        <v>49</v>
-      </c>
-      <c r="G36" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
-      <c r="A37" t="s">
-        <v>0</v>
-      </c>
-      <c r="B37" t="s">
-        <v>49</v>
-      </c>
-      <c r="C37" t="s">
-        <v>49</v>
-      </c>
-      <c r="D37" t="s">
-        <v>49</v>
-      </c>
-      <c r="E37" t="s">
-        <v>49</v>
-      </c>
-      <c r="F37" t="s">
-        <v>49</v>
-      </c>
-      <c r="G37" t="s">
-        <v>167</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>
